--- a/BackTest/2019-10-26 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-26 BackTest VALOR.xlsx
@@ -451,20 +451,14 @@
         <v>480.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>479</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>477.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>474</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>474</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>465</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>476.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>489</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -621,14 +597,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>497</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="K6" t="n">
+        <v>494</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,18 +630,18 @@
         <v>483.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>497</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>494</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -697,18 +671,18 @@
         <v>491.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>498</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>494</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -738,20 +712,14 @@
         <v>498.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>502</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +747,14 @@
         <v>500.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>502</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +782,14 @@
         <v>501.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>502</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -868,11 +824,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -907,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -946,11 +894,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -985,11 +929,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1024,11 +964,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +999,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1034,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1141,11 +1069,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1104,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1219,11 +1139,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1174,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1297,11 +1209,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1336,11 +1244,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1279,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1414,11 +1314,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1453,11 +1349,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1384,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1419,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1570,11 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1609,11 +1489,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1648,11 +1524,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1687,11 +1559,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1726,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1765,11 +1629,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1664,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1843,11 +1699,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1882,11 +1734,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +1769,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1960,11 +1804,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1999,11 +1839,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2038,11 +1874,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2077,11 +1909,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2116,11 +1944,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +1979,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2194,11 +2014,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2049,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2272,11 +2084,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2119,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2154,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2389,11 +2189,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2224,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2259,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2506,11 +2294,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2545,11 +2329,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2364,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2623,11 +2399,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2434,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2701,11 +2469,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2504,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +2539,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2818,11 +2574,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2609,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +2644,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2935,11 +2679,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2974,11 +2714,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3013,11 +2749,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3052,11 +2784,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +2854,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +2889,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +2924,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3247,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3286,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3364,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3403,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3442,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3481,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3204,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3559,11 +3239,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3274,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3309,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3344,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3715,11 +3379,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3414,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3449,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3832,11 +3484,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3519,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3554,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3589,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3624,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +3659,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +3694,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4105,11 +3729,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +3764,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +3799,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +3834,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4261,11 +3869,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +3904,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4339,11 +3939,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +3974,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4009,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4044,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4495,11 +4079,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4114,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4149,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4184,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4219,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4690,11 +4254,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4729,11 +4289,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4768,11 +4324,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4359,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4846,11 +4394,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4429,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +4464,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +4499,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5002,11 +4534,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5119,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5197,11 +4709,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +4744,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5271,16 +4775,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5308,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -6565,13 +6067,17 @@
         <v>521.2</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>526</v>
+      </c>
+      <c r="K162" t="n">
+        <v>526</v>
+      </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6600,14 +6106,22 @@
         <v>523.2</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>527</v>
+      </c>
+      <c r="K163" t="n">
+        <v>526</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6635,14 +6149,22 @@
         <v>531</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>535</v>
+      </c>
+      <c r="K164" t="n">
+        <v>526</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6192,22 @@
         <v>541</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>558</v>
+      </c>
+      <c r="K165" t="n">
+        <v>526</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6711,8 +6241,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>526</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6746,8 +6282,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>526</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6781,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>526</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6816,8 +6364,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>526</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6851,8 +6405,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>526</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6886,8 +6446,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>526</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6921,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>526</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6956,8 +6528,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>526</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +6569,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>526</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7026,8 +6610,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>526</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7061,8 +6651,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>526</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7096,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>526</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7131,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>526</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7166,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>526</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7201,8 +6815,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>526</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7236,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>526</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7271,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>526</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7306,8 +6938,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>526</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7341,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>526</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7376,8 +7020,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>526</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7411,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>526</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7446,8 +7102,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>526</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7481,8 +7143,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>526</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7513,13 +7181,19 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>526</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>1.194619771863118</v>
       </c>
     </row>
     <row r="190">
@@ -7548,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-26 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>35550.28159600001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>35557.90669600001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>464</v>
@@ -521,7 +521,7 @@
         <v>36012.05589600001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>471</v>
@@ -562,7 +562,7 @@
         <v>36440.43399600001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>475</v>
@@ -603,7 +603,7 @@
         <v>35597.43399600001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>476</v>
@@ -640,11 +640,9 @@
         <v>35704.696496</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>476</v>
       </c>
@@ -720,7 +718,7 @@
         <v>42419.40599600001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>485</v>
@@ -757,7 +755,7 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>487</v>
@@ -798,11 +796,9 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>485</v>
       </c>
@@ -872,17 +868,11 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,17 +901,11 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,17 +934,11 @@
         <v>42589.57359600002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -989,17 +967,11 @@
         <v>44799.29599600002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +1004,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,11 +1037,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1106,11 +1070,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1103,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,17 +1132,11 @@
         <v>58704.96649600002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1219,11 +1169,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1252,17 +1198,11 @@
         <v>57887.95593234579</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1295,11 +1235,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1328,17 +1264,11 @@
         <v>55257.8847323458</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1371,11 +1301,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1404,17 +1330,11 @@
         <v>51520.8421323458</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1443,17 +1363,11 @@
         <v>51523.8421323458</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1482,17 +1396,11 @@
         <v>50725.9664323458</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1521,15 +1429,15 @@
         <v>50727.9664323458</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>501</v>
+      </c>
+      <c r="J30" t="n">
+        <v>501</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1561,10 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>501</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1595,13 +1505,17 @@
         <v>48113.1327323458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>503</v>
+      </c>
+      <c r="J32" t="n">
+        <v>501</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1632,13 +1546,17 @@
         <v>47923.1254323458</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>501</v>
+      </c>
+      <c r="J33" t="n">
+        <v>501</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1669,10 +1587,14 @@
         <v>48928.9009323458</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>488</v>
+      </c>
+      <c r="J34" t="n">
+        <v>501</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,12 +1628,14 @@
         <v>50236.0393323458</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>489</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>501</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,10 +1669,14 @@
         <v>50236.0393323458</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>500</v>
+      </c>
+      <c r="J36" t="n">
+        <v>501</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,10 +1710,14 @@
         <v>50317.0393323458</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>500</v>
+      </c>
+      <c r="J37" t="n">
+        <v>501</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,7 +1754,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>501</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,7 +1793,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>501</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1893,10 +1829,14 @@
         <v>50315.0393323458</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>494</v>
+      </c>
+      <c r="J40" t="n">
+        <v>501</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,10 +1870,14 @@
         <v>50210.64203234581</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>494</v>
+      </c>
+      <c r="J41" t="n">
+        <v>501</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,10 +1911,14 @@
         <v>50205.72263234581</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>488</v>
+      </c>
+      <c r="J42" t="n">
+        <v>501</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2004,10 +1952,14 @@
         <v>50211.59563234581</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>481</v>
+      </c>
+      <c r="J43" t="n">
+        <v>501</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,12 +1993,14 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>493</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>501</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,10 +2034,14 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>490</v>
+      </c>
+      <c r="J45" t="n">
+        <v>501</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2117,10 +2075,14 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>490</v>
+      </c>
+      <c r="J46" t="n">
+        <v>501</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,10 +2116,14 @@
         <v>49927.70683234581</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>490</v>
+      </c>
+      <c r="J47" t="n">
+        <v>501</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,10 +2157,14 @@
         <v>49659.29103234581</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>491</v>
+      </c>
+      <c r="J48" t="n">
+        <v>501</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2231,7 +2201,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>501</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2265,10 +2237,14 @@
         <v>49639.0650323458</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>480</v>
+      </c>
+      <c r="J50" t="n">
+        <v>501</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,10 +2278,14 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>480</v>
+      </c>
+      <c r="J51" t="n">
+        <v>501</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,10 +2319,14 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>481</v>
+      </c>
+      <c r="J52" t="n">
+        <v>501</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,10 +2360,14 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>481</v>
+      </c>
+      <c r="J53" t="n">
+        <v>501</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2413,10 +2401,14 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>481</v>
+      </c>
+      <c r="J54" t="n">
+        <v>501</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,10 +2442,14 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>481</v>
+      </c>
+      <c r="J55" t="n">
+        <v>501</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,10 +2483,14 @@
         <v>50681.7316323458</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>481</v>
+      </c>
+      <c r="J56" t="n">
+        <v>501</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,7 +2527,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>501</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,7 +2566,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>501</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,7 +2605,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>501</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,7 +2644,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>501</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,7 +2683,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>501</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,7 +2722,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>501</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2749,7 +2761,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>501</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,12 +2797,12 @@
         <v>49157.3206323458</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>465</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>501</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,7 +2839,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>501</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,7 +2878,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>501</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,7 +2917,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>501</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,7 +2956,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>501</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,7 +2995,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>501</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,7 +3034,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>501</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,7 +3073,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>501</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,7 +3112,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>501</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3151,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>501</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,7 +3190,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>501</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,7 +3229,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>501</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,7 +3268,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>501</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,7 +3307,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>501</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,7 +3346,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>501</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,7 +3385,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>501</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,7 +3424,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>501</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3417,7 +3463,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>501</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,7 +3502,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>501</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,7 +3541,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>501</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,7 +3580,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>501</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,7 +3619,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>501</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,7 +3658,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>501</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,7 +3697,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>501</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,7 +3736,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>501</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,7 +3775,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>501</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3750,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>501</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,7 +3853,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>501</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,7 +3892,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>501</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,7 +3931,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>501</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,7 +3970,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>501</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,7 +4009,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>501</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,7 +4048,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>501</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,7 +4087,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>501</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,7 +4126,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>501</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,7 +4165,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>501</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +4204,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>501</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,7 +4243,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>501</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,7 +4282,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>501</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,7 +4321,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>501</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,7 +4360,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>501</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,7 +4399,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>501</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,7 +4438,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>501</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,7 +4477,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>501</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>501</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,7 +4555,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>501</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,7 +4594,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>501</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4633,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>501</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,7 +4672,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>501</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,7 +4711,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>501</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,7 +4750,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>501</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,7 +4789,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>501</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,7 +4828,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>501</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,7 +4867,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>501</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,7 +4906,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>501</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,7 +4945,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>501</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,7 +4984,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>501</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,7 +5023,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>501</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,7 +5062,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>501</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +5101,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>501</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,7 +5140,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>501</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,7 +5179,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>501</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,7 +5218,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>501</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5119,7 +5257,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>501</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5156,7 +5296,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>501</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,7 +5335,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>501</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,7 +5374,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>501</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,7 +5413,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>501</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,7 +5452,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>501</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5341,7 +5491,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>501</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,7 +5530,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>501</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,7 +5569,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>501</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,7 +5608,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>501</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5489,7 +5647,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>501</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,7 +5686,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>501</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,7 +5725,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>501</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,7 +5764,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>501</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,7 +5803,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>501</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,7 +5842,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>501</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5711,7 +5881,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>501</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5748,7 +5920,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>501</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,7 +5959,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>501</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5822,7 +5998,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>501</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,7 +6037,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>501</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,7 +6076,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>501</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,7 +6115,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>501</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +6154,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>501</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,7 +6193,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>501</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,7 +6232,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>501</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,7 +6271,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>501</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,7 +6310,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>501</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,7 +6349,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>501</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,7 +6388,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>501</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,7 +6427,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>501</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,7 +6466,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>501</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6303,7 +6505,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>501</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,7 +6544,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>501</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6377,7 +6583,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>501</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,7 +6622,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>501</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,7 +6661,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>501</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6488,7 +6700,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>501</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6525,7 +6739,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>501</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,7 +6778,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>501</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,7 +6817,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>501</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6636,7 +6856,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>501</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,7 +6895,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>501</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,7 +6934,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>501</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6747,7 +6973,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>501</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6784,7 +7012,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>501</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6821,7 +7051,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>501</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6858,7 +7090,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>501</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,7 +7129,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>501</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,7 +7168,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>501</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6969,7 +7207,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>501</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,7 +7246,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>501</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7043,7 +7285,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>501</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,7 +7324,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>501</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,7 +7363,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>501</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,7 +7402,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>501</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7191,7 +7441,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>501</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7228,7 +7480,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>501</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7265,7 +7519,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>501</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7302,7 +7558,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>501</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,7 +7597,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>501</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7376,7 +7636,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>501</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,7 +7675,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>501</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,7 +7714,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>501</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,7 +7753,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>501</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,7 +7792,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>501</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,7 +7831,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>501</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,7 +7870,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>501</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,7 +7909,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>501</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7672,7 +7948,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>501</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,7 +7987,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>501</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,7 +8026,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>501</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,7 +8065,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>501</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,7 +8104,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>501</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,7 +8143,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>501</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,7 +8182,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>501</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,7 +8221,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>501</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,10 +8257,12 @@
         <v>160781.8501763079</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>501</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,10 +8296,12 @@
         <v>155568.2448763079</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>501</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,10 +8335,12 @@
         <v>153325.7994763079</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>501</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,7 +8377,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>501</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8113,10 +8413,12 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>501</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,7 +8455,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>501</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8190,7 +8494,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>501</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,7 +8533,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>501</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8261,10 +8569,12 @@
         <v>139509.0426763079</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>501</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,7 +8611,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>501</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,7 +8650,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>501</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,7 +8689,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>501</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,7 +8728,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>501</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8449,7 +8767,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>501</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8486,7 +8806,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>501</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,7 +8845,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>501</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,7 +8884,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>501</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8597,7 +8923,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>501</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,7 +8962,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>501</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8671,7 +9001,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>501</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8708,7 +9040,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>501</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8745,7 +9079,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>501</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,7 +9118,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>501</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8819,7 +9157,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>501</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8856,7 +9196,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>501</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8893,7 +9235,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>501</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,7 +9274,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>501</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,7 +9313,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>501</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9004,7 +9352,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>501</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,7 +9391,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>501</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,7 +9430,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>501</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,7 +9469,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>501</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,7 +9508,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>501</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,7 +9547,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>501</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,7 +9586,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>501</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,7 +9625,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>501</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,7 +9664,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>501</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9337,7 +9703,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>501</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,7 +9742,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>501</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9408,16 +9778,20 @@
         <v>182241.4280573096</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>501</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
       <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
@@ -9443,11 +9817,17 @@
         <v>193262.6183145475</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>501</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9856,17 @@
         <v>204427.2538145475</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>501</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9509,11 +9895,17 @@
         <v>231189.1292159321</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>501</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9542,11 +9934,17 @@
         <v>223445.1531159321</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>501</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +9973,17 @@
         <v>227285.8068159321</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>501</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +10012,17 @@
         <v>230960.9163159321</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>501</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9644,8 +10054,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>501</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9677,8 +10093,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>501</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +10129,17 @@
         <v>247397.6683159321</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>501</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9743,8 +10171,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>501</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9776,8 +10210,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>501</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9809,8 +10249,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>501</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9842,8 +10288,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>501</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9875,8 +10327,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>501</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9908,8 +10366,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>501</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9938,15 +10402,23 @@
         <v>248739.2732914882</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>501</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>1.244500998003992</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1.101293103448276</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9971,7 +10443,7 @@
         <v>256093.6031914882</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10004,7 +10476,7 @@
         <v>256458.0860914882</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10070,7 +10542,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10103,7 +10575,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10136,7 +10608,7 @@
         <v>257223.3169914882</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10169,7 +10641,7 @@
         <v>257782.2078914882</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10202,7 +10674,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10235,7 +10707,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10268,7 +10740,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10301,7 +10773,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10334,7 +10806,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10367,7 +10839,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10400,7 +10872,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10433,7 +10905,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10466,7 +10938,7 @@
         <v>252813.5206914882</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10499,7 +10971,7 @@
         <v>251234.6028914882</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10961,7 +11433,7 @@
         <v>245185.8351693363</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10994,7 +11466,7 @@
         <v>245422.7684693363</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11060,7 +11532,7 @@
         <v>243660.1862693363</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11093,7 +11565,7 @@
         <v>236870.2506305505</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11126,7 +11598,7 @@
         <v>236876.9429305505</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11159,7 +11631,7 @@
         <v>236749.9429305505</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11192,7 +11664,7 @@
         <v>226888.6475305505</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11225,7 +11697,7 @@
         <v>230893.8935305505</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11258,7 +11730,7 @@
         <v>230955.7326305505</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11291,7 +11763,7 @@
         <v>228911.2235305505</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11324,7 +11796,7 @@
         <v>228911.2235305505</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11357,7 +11829,7 @@
         <v>228910.2235305505</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11390,7 +11862,7 @@
         <v>230445.6741305505</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11423,7 +11895,7 @@
         <v>225677.5664305505</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11489,7 +11961,7 @@
         <v>227744.6867305505</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11522,7 +11994,7 @@
         <v>227744.6867305505</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11555,7 +12027,7 @@
         <v>229863.6644158348</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11588,7 +12060,7 @@
         <v>229863.6644158348</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11621,7 +12093,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11654,7 +12126,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11687,7 +12159,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11720,7 +12192,7 @@
         <v>229683.5448158348</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11753,7 +12225,7 @@
         <v>229683.5448158348</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11786,7 +12258,7 @@
         <v>229774.2448158348</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12116,7 +12588,7 @@
         <v>229406.4760158348</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12149,7 +12621,7 @@
         <v>231216.5078158348</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12281,7 +12753,7 @@
         <v>234422.1271158348</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12347,7 +12819,7 @@
         <v>234422.1271158348</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12380,7 +12852,7 @@
         <v>233925.5662158348</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12413,7 +12885,7 @@
         <v>236853.3268158348</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12446,7 +12918,7 @@
         <v>236853.3268158348</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12479,7 +12951,7 @@
         <v>236852.3268158348</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12512,7 +12984,7 @@
         <v>237359.5009158348</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12545,7 +13017,7 @@
         <v>237426.5009158348</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12578,7 +13050,7 @@
         <v>237490.5009158348</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12611,7 +13083,7 @@
         <v>237490.5009158348</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12644,7 +13116,7 @@
         <v>237491.5009158348</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12677,7 +13149,7 @@
         <v>237491.5009158348</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12710,7 +13182,7 @@
         <v>236740.4133158348</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12743,7 +13215,7 @@
         <v>236736.8012158348</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12776,7 +13248,7 @@
         <v>236736.8012158348</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12809,7 +13281,7 @@
         <v>236746.8143158348</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12842,7 +13314,7 @@
         <v>236674.0968158348</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12875,7 +13347,7 @@
         <v>233306.5392158348</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12908,7 +13380,7 @@
         <v>233319.5392158348</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12941,7 +13413,7 @@
         <v>233304.4081158348</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12974,7 +13446,7 @@
         <v>235023.3689158348</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13007,7 +13479,7 @@
         <v>233998.0604158348</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13040,7 +13512,7 @@
         <v>235243.1588158348</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13073,7 +13545,7 @@
         <v>237740.3329158348</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13106,7 +13578,7 @@
         <v>239352.7890158348</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13139,7 +13611,7 @@
         <v>238980.1466158348</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13172,7 +13644,7 @@
         <v>239314.4567158348</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13205,7 +13677,7 @@
         <v>239312.4567158348</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13238,7 +13710,7 @@
         <v>239282.3153158348</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13271,7 +13743,7 @@
         <v>237014.8024158348</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13304,7 +13776,7 @@
         <v>237014.8024158348</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13337,7 +13809,7 @@
         <v>237014.8024158348</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13370,7 +13842,7 @@
         <v>236563.1764158348</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13469,7 +13941,7 @@
         <v>233173.7343158348</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13502,7 +13974,7 @@
         <v>233571.7649158348</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13535,7 +14007,7 @@
         <v>231980.9058158348</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13568,7 +14040,7 @@
         <v>232522.2480158348</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13634,7 +14106,7 @@
         <v>232756.8846158348</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13667,7 +14139,7 @@
         <v>223698.4610158348</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13700,7 +14172,7 @@
         <v>220132.3606158348</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13733,7 +14205,7 @@
         <v>219847.1798158348</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13766,7 +14238,7 @@
         <v>217347.1497158348</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13799,7 +14271,7 @@
         <v>217347.1497158348</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13832,7 +14304,7 @@
         <v>222375.3066158348</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13865,7 +14337,7 @@
         <v>221156.2292158348</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13898,7 +14370,7 @@
         <v>226602.2292158348</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13931,7 +14403,7 @@
         <v>226074.8654158348</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13964,7 +14436,7 @@
         <v>221111.5379158348</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13997,7 +14469,7 @@
         <v>221115.5379158348</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14030,7 +14502,7 @@
         <v>221121.5379158348</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14063,7 +14535,7 @@
         <v>221121.5379158348</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14096,7 +14568,7 @@
         <v>221398.6439158348</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14129,7 +14601,7 @@
         <v>221398.6439158348</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14360,7 +14832,7 @@
         <v>229291.122712868</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14393,7 +14865,7 @@
         <v>229015.926712868</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14426,7 +14898,7 @@
         <v>228883.100712868</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14459,7 +14931,7 @@
         <v>229308.100712868</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14624,7 +15096,7 @@
         <v>237462.4816158348</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14723,7 +15195,7 @@
         <v>236698.8030158348</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14756,7 +15228,7 @@
         <v>234440.3986158348</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14855,7 +15327,7 @@
         <v>233224.1675158348</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15152,7 +15624,7 @@
         <v>231939.4280158348</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15383,7 +15855,7 @@
         <v>230657.789892106</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15416,7 +15888,7 @@
         <v>230567.557392106</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15449,7 +15921,7 @@
         <v>230567.557392106</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15482,7 +15954,7 @@
         <v>236391.648492106</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15515,7 +15987,7 @@
         <v>236391.648492106</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15548,7 +16020,7 @@
         <v>236214.917492106</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15614,7 +16086,7 @@
         <v>236214.917492106</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15680,7 +16152,7 @@
         <v>236830.674692106</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15713,7 +16185,7 @@
         <v>236832.674692106</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15779,7 +16251,7 @@
         <v>240452.938992106</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15812,7 +16284,7 @@
         <v>240452.938992106</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15845,7 +16317,7 @@
         <v>240218.351492106</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15878,7 +16350,7 @@
         <v>240256.951092106</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15911,7 +16383,7 @@
         <v>240036.2679265654</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15944,7 +16416,7 @@
         <v>237215.8323265654</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15977,7 +16449,7 @@
         <v>237777.3172265654</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16010,7 +16482,7 @@
         <v>235786.6802265655</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16043,7 +16515,7 @@
         <v>235836.7127265655</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16076,7 +16548,7 @@
         <v>236220.9001265655</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16109,7 +16581,7 @@
         <v>237942.1909265654</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16142,7 +16614,7 @@
         <v>237942.1909265654</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16175,7 +16647,7 @@
         <v>237943.9056265655</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16208,7 +16680,7 @@
         <v>238864.7683265654</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16241,7 +16713,7 @@
         <v>238804.7683265654</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16274,7 +16746,7 @@
         <v>242469.0169265654</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16307,7 +16779,7 @@
         <v>242466.7200265655</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16340,7 +16812,7 @@
         <v>242495.7200265655</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16351,6 +16823,6 @@
       <c r="M453" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-26 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,9 +640,11 @@
         <v>35704.696496</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>475</v>
+      </c>
       <c r="J7" t="n">
         <v>476</v>
       </c>
@@ -679,9 +681,11 @@
         <v>36557.16729600001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>480</v>
+      </c>
       <c r="J8" t="n">
         <v>476</v>
       </c>
@@ -796,9 +800,11 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>488</v>
+      </c>
       <c r="J11" t="n">
         <v>485</v>
       </c>
@@ -835,10 +841,14 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>488</v>
+      </c>
+      <c r="J12" t="n">
+        <v>488</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -871,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>488</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -904,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>488</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +956,19 @@
         <v>42589.57359600002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>487</v>
+      </c>
+      <c r="J15" t="n">
+        <v>488</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -970,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>488</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1003,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>488</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1036,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,11 +1114,19 @@
         <v>58703.96649600002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>490</v>
+      </c>
+      <c r="J19" t="n">
+        <v>488</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1102,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>488</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1135,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>488</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1168,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>488</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1201,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>488</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1234,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>488</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1267,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>488</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1300,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>488</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1333,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>488</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1366,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>488</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1399,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>488</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1429,15 +1545,17 @@
         <v>50727.9664323458</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>501</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>488</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1588,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1505,17 +1623,15 @@
         <v>48113.1327323458</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1546,17 +1662,15 @@
         <v>47923.1254323458</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1587,13 +1701,11 @@
         <v>48928.9009323458</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1628,13 +1740,11 @@
         <v>50236.0393323458</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1669,13 +1779,11 @@
         <v>50236.0393323458</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1710,13 +1818,11 @@
         <v>50317.0393323458</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1755,7 +1861,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1794,7 +1900,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1829,13 +1935,11 @@
         <v>50315.0393323458</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1870,13 +1974,11 @@
         <v>50210.64203234581</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1911,13 +2013,11 @@
         <v>50205.72263234581</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1952,13 +2052,11 @@
         <v>50211.59563234581</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1993,13 +2091,11 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2034,13 +2130,11 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2075,13 +2169,11 @@
         <v>49917.46863234581</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2116,13 +2208,11 @@
         <v>49927.70683234581</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2157,13 +2247,11 @@
         <v>49659.29103234581</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2202,7 +2290,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2237,13 +2325,11 @@
         <v>49639.0650323458</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2284,7 +2370,7 @@
         <v>480</v>
       </c>
       <c r="J51" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2325,7 +2411,7 @@
         <v>481</v>
       </c>
       <c r="J52" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2366,7 +2452,7 @@
         <v>481</v>
       </c>
       <c r="J53" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2401,13 +2487,11 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2448,7 +2532,7 @@
         <v>481</v>
       </c>
       <c r="J55" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2489,7 +2573,7 @@
         <v>481</v>
       </c>
       <c r="J56" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2528,7 +2612,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2567,7 +2651,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2602,11 +2686,13 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>481</v>
+      </c>
       <c r="J59" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2641,11 +2727,13 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>480</v>
+      </c>
       <c r="J60" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2680,11 +2768,13 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>480</v>
+      </c>
       <c r="J61" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2719,11 +2809,13 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>480</v>
+      </c>
       <c r="J62" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2758,11 +2850,13 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>465</v>
+      </c>
       <c r="J63" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2797,11 +2891,13 @@
         <v>49157.3206323458</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>465</v>
+      </c>
       <c r="J64" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2836,11 +2932,13 @@
         <v>49450.1112323458</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>494</v>
+      </c>
       <c r="J65" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2879,7 +2977,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2918,7 +3016,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2957,7 +3055,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2996,7 +3094,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3035,7 +3133,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3074,7 +3172,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3113,7 +3211,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3152,7 +3250,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3191,7 +3289,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3230,7 +3328,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3269,7 +3367,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3308,7 +3406,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3347,7 +3445,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3386,7 +3484,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3425,7 +3523,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3464,7 +3562,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3503,7 +3601,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3542,7 +3640,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3581,7 +3679,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3620,7 +3718,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3659,7 +3757,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3698,7 +3796,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3737,7 +3835,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3776,7 +3874,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3815,7 +3913,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3854,7 +3952,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3893,7 +3991,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3932,7 +4030,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3971,7 +4069,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4010,7 +4108,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4049,7 +4147,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4088,7 +4186,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4127,7 +4225,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4166,7 +4264,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4205,7 +4303,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4244,7 +4342,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4283,7 +4381,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4322,7 +4420,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4361,7 +4459,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4400,7 +4498,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4439,7 +4537,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4478,7 +4576,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4517,7 +4615,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4556,7 +4654,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4595,7 +4693,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4634,7 +4732,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4673,7 +4771,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4712,7 +4810,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4751,7 +4849,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4790,7 +4888,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4829,7 +4927,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4868,7 +4966,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4907,7 +5005,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4946,7 +5044,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4985,7 +5083,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5024,7 +5122,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5063,7 +5161,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5102,7 +5200,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5141,7 +5239,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5180,7 +5278,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5219,7 +5317,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5258,7 +5356,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5297,7 +5395,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5336,7 +5434,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5375,7 +5473,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5414,7 +5512,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5453,7 +5551,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5492,7 +5590,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5531,7 +5629,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5570,7 +5668,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5609,7 +5707,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5648,7 +5746,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5687,7 +5785,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5726,7 +5824,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5765,7 +5863,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5804,7 +5902,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5843,7 +5941,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5882,7 +5980,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5921,7 +6019,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5960,7 +6058,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5999,7 +6097,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6038,7 +6136,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6077,7 +6175,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6116,7 +6214,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6155,7 +6253,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6194,7 +6292,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6233,7 +6331,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6272,7 +6370,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6311,7 +6409,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6350,7 +6448,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6389,7 +6487,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6428,7 +6526,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6467,7 +6565,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6506,7 +6604,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6545,7 +6643,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6584,7 +6682,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6623,7 +6721,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6662,7 +6760,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6701,7 +6799,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6740,7 +6838,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6779,7 +6877,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6818,7 +6916,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6857,7 +6955,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6896,7 +6994,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6935,7 +7033,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6974,7 +7072,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7013,7 +7111,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7052,7 +7150,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7091,7 +7189,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7130,7 +7228,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7169,7 +7267,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7208,7 +7306,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7247,7 +7345,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7286,7 +7384,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7325,7 +7423,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7364,7 +7462,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7403,7 +7501,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7442,7 +7540,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7481,7 +7579,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7520,7 +7618,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7559,7 +7657,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7598,7 +7696,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7637,7 +7735,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7676,7 +7774,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7715,7 +7813,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7754,7 +7852,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7793,7 +7891,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7832,7 +7930,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7871,7 +7969,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7910,7 +8008,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7949,7 +8047,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7988,7 +8086,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8027,7 +8125,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8066,7 +8164,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8105,7 +8203,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8144,7 +8242,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8183,7 +8281,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8222,7 +8320,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8261,7 +8359,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8300,7 +8398,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8335,21 +8433,23 @@
         <v>153325.7994763079</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>1.070819672131148</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1.051724137931034</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8374,17 +8474,11 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>501</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8413,17 +8507,11 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>501</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8452,17 +8540,11 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>501</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8491,17 +8573,11 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>501</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8530,17 +8606,11 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>501</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8569,17 +8639,11 @@
         <v>139509.0426763079</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>501</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8608,17 +8672,11 @@
         <v>137141.4688763079</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>501</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8647,17 +8705,11 @@
         <v>139541.6316763079</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>501</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8689,14 +8741,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>501</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8728,14 +8774,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>501</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8767,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>501</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8806,14 +8840,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>501</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +8873,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>501</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8884,14 +8906,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>501</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8923,14 +8939,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>501</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8962,14 +8972,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>501</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9001,14 +9005,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>501</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9040,14 +9038,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>501</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9079,14 +9071,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>501</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9118,14 +9104,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>501</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>501</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +9170,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>501</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +9203,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>501</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +9236,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>501</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +9269,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>501</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9352,14 +9302,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>501</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9391,14 +9335,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>501</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9430,14 +9368,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>501</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9469,14 +9401,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>501</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9508,14 +9434,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>501</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9547,14 +9467,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>501</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +9500,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>501</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9625,14 +9533,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>501</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9664,14 +9566,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>501</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9703,14 +9599,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>501</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9742,14 +9632,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>501</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9781,14 +9665,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>501</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9820,14 +9698,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>501</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9859,14 +9731,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>501</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9898,14 +9764,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>501</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9937,14 +9797,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>501</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9976,14 +9830,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>501</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10015,14 +9863,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>501</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10054,14 +9896,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>501</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10093,14 +9929,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>501</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10132,14 +9962,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>501</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10171,14 +9995,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>501</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10210,14 +10028,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>501</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10249,14 +10061,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>501</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10288,14 +10094,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>501</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10327,14 +10127,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>501</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10366,14 +10160,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>501</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10402,23 +10190,15 @@
         <v>248739.2732914882</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>501</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>1.244500998003992</v>
-      </c>
-      <c r="M259" t="n">
-        <v>1.101293103448276</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10443,7 +10223,7 @@
         <v>256093.6031914882</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10476,7 +10256,7 @@
         <v>256458.0860914882</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10542,7 +10322,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10575,7 +10355,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10608,7 +10388,7 @@
         <v>257223.3169914882</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10641,7 +10421,7 @@
         <v>257782.2078914882</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10674,7 +10454,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10707,7 +10487,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10740,7 +10520,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10773,7 +10553,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10806,7 +10586,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10839,7 +10619,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10872,7 +10652,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10905,7 +10685,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10938,7 +10718,7 @@
         <v>252813.5206914882</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10971,7 +10751,7 @@
         <v>251234.6028914882</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11433,7 +11213,7 @@
         <v>245185.8351693363</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11466,7 +11246,7 @@
         <v>245422.7684693363</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11532,7 +11312,7 @@
         <v>243660.1862693363</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11565,7 +11345,7 @@
         <v>236870.2506305505</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11598,7 +11378,7 @@
         <v>236876.9429305505</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11631,7 +11411,7 @@
         <v>236749.9429305505</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11664,7 +11444,7 @@
         <v>226888.6475305505</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11697,7 +11477,7 @@
         <v>230893.8935305505</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11730,7 +11510,7 @@
         <v>230955.7326305505</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11763,7 +11543,7 @@
         <v>228911.2235305505</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11796,7 +11576,7 @@
         <v>228911.2235305505</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11829,7 +11609,7 @@
         <v>228910.2235305505</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11862,7 +11642,7 @@
         <v>230445.6741305505</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11895,7 +11675,7 @@
         <v>225677.5664305505</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11961,7 +11741,7 @@
         <v>227744.6867305505</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11994,7 +11774,7 @@
         <v>227744.6867305505</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12027,7 +11807,7 @@
         <v>229863.6644158348</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12060,7 +11840,7 @@
         <v>229863.6644158348</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12093,7 +11873,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12126,7 +11906,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12159,7 +11939,7 @@
         <v>229687.5448158348</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12192,7 +11972,7 @@
         <v>229683.5448158348</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12225,7 +12005,7 @@
         <v>229683.5448158348</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12258,7 +12038,7 @@
         <v>229774.2448158348</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12588,7 +12368,7 @@
         <v>229406.4760158348</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12621,7 +12401,7 @@
         <v>231216.5078158348</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12753,7 +12533,7 @@
         <v>234422.1271158348</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12885,7 +12665,7 @@
         <v>236853.3268158348</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12918,7 +12698,7 @@
         <v>236853.3268158348</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12951,7 +12731,7 @@
         <v>236852.3268158348</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12984,7 +12764,7 @@
         <v>237359.5009158348</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13017,7 +12797,7 @@
         <v>237426.5009158348</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13050,7 +12830,7 @@
         <v>237490.5009158348</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13083,7 +12863,7 @@
         <v>237490.5009158348</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13116,7 +12896,7 @@
         <v>237491.5009158348</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13149,7 +12929,7 @@
         <v>237491.5009158348</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13182,7 +12962,7 @@
         <v>236740.4133158348</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13215,7 +12995,7 @@
         <v>236736.8012158348</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13248,7 +13028,7 @@
         <v>236736.8012158348</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13281,7 +13061,7 @@
         <v>236746.8143158348</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13314,7 +13094,7 @@
         <v>236674.0968158348</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13347,7 +13127,7 @@
         <v>233306.5392158348</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13380,7 +13160,7 @@
         <v>233319.5392158348</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13413,7 +13193,7 @@
         <v>233304.4081158348</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13446,7 +13226,7 @@
         <v>235023.3689158348</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13479,7 +13259,7 @@
         <v>233998.0604158348</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13512,7 +13292,7 @@
         <v>235243.1588158348</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13545,7 +13325,7 @@
         <v>237740.3329158348</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13578,7 +13358,7 @@
         <v>239352.7890158348</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13611,7 +13391,7 @@
         <v>238980.1466158348</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13644,7 +13424,7 @@
         <v>239314.4567158348</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13677,7 +13457,7 @@
         <v>239312.4567158348</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13710,7 +13490,7 @@
         <v>239282.3153158348</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13743,7 +13523,7 @@
         <v>237014.8024158348</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13809,7 +13589,7 @@
         <v>237014.8024158348</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13941,7 +13721,7 @@
         <v>233173.7343158348</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13974,7 +13754,7 @@
         <v>233571.7649158348</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14007,7 +13787,7 @@
         <v>231980.9058158348</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14040,7 +13820,7 @@
         <v>232522.2480158348</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14106,7 +13886,7 @@
         <v>232756.8846158348</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14139,7 +13919,7 @@
         <v>223698.4610158348</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14172,7 +13952,7 @@
         <v>220132.3606158348</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14205,7 +13985,7 @@
         <v>219847.1798158348</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14238,7 +14018,7 @@
         <v>217347.1497158348</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14271,7 +14051,7 @@
         <v>217347.1497158348</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14304,7 +14084,7 @@
         <v>222375.3066158348</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14337,7 +14117,7 @@
         <v>221156.2292158348</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14370,7 +14150,7 @@
         <v>226602.2292158348</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14403,7 +14183,7 @@
         <v>226074.8654158348</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14436,7 +14216,7 @@
         <v>221111.5379158348</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14469,7 +14249,7 @@
         <v>221115.5379158348</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14502,7 +14282,7 @@
         <v>221121.5379158348</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14535,7 +14315,7 @@
         <v>221121.5379158348</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14568,7 +14348,7 @@
         <v>221398.6439158348</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14601,7 +14381,7 @@
         <v>221398.6439158348</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14832,7 +14612,7 @@
         <v>229291.122712868</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14865,7 +14645,7 @@
         <v>229015.926712868</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14898,7 +14678,7 @@
         <v>228883.100712868</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14931,7 +14711,7 @@
         <v>229308.100712868</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15327,7 +15107,7 @@
         <v>233224.1675158348</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15855,7 +15635,7 @@
         <v>230657.789892106</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15921,7 +15701,7 @@
         <v>230567.557392106</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15954,7 +15734,7 @@
         <v>236391.648492106</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16350,7 +16130,7 @@
         <v>240256.951092106</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16383,7 +16163,7 @@
         <v>240036.2679265654</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16416,7 +16196,7 @@
         <v>237215.8323265654</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16449,7 +16229,7 @@
         <v>237777.3172265654</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16482,7 +16262,7 @@
         <v>235786.6802265655</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16515,7 +16295,7 @@
         <v>235836.7127265655</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16548,7 +16328,7 @@
         <v>236220.9001265655</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16581,7 +16361,7 @@
         <v>237942.1909265654</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16614,7 +16394,7 @@
         <v>237942.1909265654</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16647,7 +16427,7 @@
         <v>237943.9056265655</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16680,7 +16460,7 @@
         <v>238864.7683265654</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16713,7 +16493,7 @@
         <v>238804.7683265654</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16746,7 +16526,7 @@
         <v>242469.0169265654</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16779,7 +16559,7 @@
         <v>242466.7200265655</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16812,7 +16592,7 @@
         <v>242495.7200265655</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16823,6 +16603,6 @@
       <c r="M453" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-26 BackTest VALOR.xlsx
@@ -603,14 +603,10 @@
         <v>35597.43399600001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>476</v>
-      </c>
-      <c r="J6" t="n">
-        <v>476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +636,11 @@
         <v>35704.696496</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>475</v>
-      </c>
-      <c r="J7" t="n">
-        <v>476</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +669,11 @@
         <v>36557.16729600001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>480</v>
-      </c>
-      <c r="J8" t="n">
-        <v>476</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +702,10 @@
         <v>42419.40599600001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>485</v>
-      </c>
-      <c r="J9" t="n">
-        <v>485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +735,11 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>487</v>
-      </c>
-      <c r="J10" t="n">
-        <v>485</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +768,11 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>488</v>
-      </c>
-      <c r="J11" t="n">
-        <v>485</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +801,10 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>488</v>
-      </c>
-      <c r="J12" t="n">
-        <v>488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -881,14 +837,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>488</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +870,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>488</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -956,19 +900,11 @@
         <v>42589.57359600002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>487</v>
-      </c>
-      <c r="J15" t="n">
-        <v>488</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +936,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>488</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +969,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>488</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>488</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1114,19 +1032,11 @@
         <v>58703.96649600002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>490</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1068,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>488</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1101,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>488</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1134,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>488</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1167,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>488</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1200,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>488</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1233,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>488</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1266,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>488</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1299,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>488</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>488</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1365,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>488</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>488</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1431,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>488</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1464,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>488</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1497,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>488</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1530,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>488</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1563,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>488</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1596,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>488</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1629,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>488</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1662,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>488</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1695,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>488</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1728,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>488</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1761,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>488</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>488</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1827,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>488</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1860,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>488</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1893,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>488</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1926,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>488</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1959,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>488</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1992,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>488</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2025,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>488</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2058,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>488</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2364,19 +2088,11 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>480</v>
-      </c>
-      <c r="J51" t="n">
-        <v>488</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2405,19 +2121,11 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>481</v>
-      </c>
-      <c r="J52" t="n">
-        <v>488</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2446,19 +2154,11 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>481</v>
-      </c>
-      <c r="J53" t="n">
-        <v>488</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2490,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>488</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2526,19 +2220,11 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>481</v>
-      </c>
-      <c r="J55" t="n">
-        <v>488</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2567,19 +2253,11 @@
         <v>50681.7316323458</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>481</v>
-      </c>
-      <c r="J56" t="n">
-        <v>488</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2289,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>488</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2650,14 +2322,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>488</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2686,19 +2352,11 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>481</v>
-      </c>
-      <c r="J59" t="n">
-        <v>488</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2727,19 +2385,11 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>480</v>
-      </c>
-      <c r="J60" t="n">
-        <v>488</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2768,19 +2418,11 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>480</v>
-      </c>
-      <c r="J61" t="n">
-        <v>488</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2809,19 +2451,11 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>480</v>
-      </c>
-      <c r="J62" t="n">
-        <v>488</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2850,19 +2484,11 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>465</v>
-      </c>
-      <c r="J63" t="n">
-        <v>488</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2891,19 +2517,11 @@
         <v>49157.3206323458</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>465</v>
-      </c>
-      <c r="J64" t="n">
-        <v>488</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2932,19 +2550,11 @@
         <v>49450.1112323458</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>494</v>
-      </c>
-      <c r="J65" t="n">
-        <v>488</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>488</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2619,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>488</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2652,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>488</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2685,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>488</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2718,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>488</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2751,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>488</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2784,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>488</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2817,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>488</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +2850,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>488</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2883,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>488</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +2916,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>488</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +2949,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>488</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>488</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3015,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>488</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>488</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3081,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>488</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3114,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>488</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3147,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>488</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3180,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>488</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3213,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>488</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3246,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>488</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3279,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>488</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>488</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>488</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>488</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3411,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>488</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3444,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>488</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3477,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>488</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3510,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>488</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3543,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>488</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>488</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3609,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>488</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>488</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3675,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>488</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3708,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>488</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3741,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>488</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>488</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +3807,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>488</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>488</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>488</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +3906,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>488</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +3939,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>488</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +3972,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>488</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +4005,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>488</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4038,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>488</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4071,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>488</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>488</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>488</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>488</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>488</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>488</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4965,14 +4269,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>488</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4302,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>488</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5043,14 +4335,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>488</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5082,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>488</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5121,14 +4401,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>488</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5160,14 +4434,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>488</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>488</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>488</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5277,14 +4533,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>488</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +4566,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>488</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4599,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>488</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5394,14 +4632,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>488</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5433,14 +4665,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>488</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>488</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +4731,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>488</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +4764,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>488</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>488</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +4830,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>488</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +4863,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>488</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +4896,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>488</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +4929,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>488</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>488</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>488</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>488</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>488</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +5094,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>488</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5127,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>488</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6018,14 +5160,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>488</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6057,14 +5193,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>488</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5226,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>488</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>488</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6174,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>488</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6213,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>488</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>488</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>488</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>488</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6369,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>488</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>488</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6447,14 +5523,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>488</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6486,14 +5556,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>488</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6525,14 +5589,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>488</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6564,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>488</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +5655,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>488</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6642,14 +5688,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>488</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6681,14 +5721,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>488</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6720,14 +5754,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>488</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6759,14 +5787,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>488</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6798,14 +5820,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>488</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6837,14 +5853,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>488</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6876,14 +5886,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>488</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6915,14 +5919,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>488</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>488</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6993,14 +5985,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>488</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7032,14 +6018,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>488</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7071,14 +6051,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>488</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7110,14 +6084,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>488</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7149,14 +6117,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>488</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7188,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>488</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7227,14 +6183,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>488</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7266,14 +6216,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>488</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7305,14 +6249,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>488</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7344,14 +6282,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>488</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +6315,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>488</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7422,14 +6348,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>488</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +6381,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>488</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7500,14 +6414,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>488</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7539,14 +6447,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>488</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7578,14 +6480,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>488</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7617,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>488</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7656,14 +6546,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>488</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7695,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>488</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7734,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>488</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +6645,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>488</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +6678,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>488</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +6711,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>488</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7890,14 +6744,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>488</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7929,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>488</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7968,14 +6810,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>488</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +6843,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>488</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +6876,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>488</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8085,14 +6909,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>488</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +6942,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>488</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +6975,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>488</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +7008,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>488</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +7041,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>488</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +7074,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>488</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>488</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +7140,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>488</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +7173,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>488</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8433,23 +7203,15 @@
         <v>153325.7994763079</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>488</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.070819672131148</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1.051724137931034</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8474,7 +7236,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8507,7 +7269,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8540,7 +7302,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8573,7 +7335,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8606,7 +7368,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8639,7 +7401,7 @@
         <v>139509.0426763079</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8672,7 +7434,7 @@
         <v>137141.4688763079</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8705,7 +7467,7 @@
         <v>139541.6316763079</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -9926,7 +8688,7 @@
         <v>246276.1876159321</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10058,7 +8820,7 @@
         <v>245229.8823159321</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10091,7 +8853,7 @@
         <v>239741.97157317</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10190,7 +8952,7 @@
         <v>248739.2732914882</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10223,7 +8985,7 @@
         <v>256093.6031914882</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10256,7 +9018,7 @@
         <v>256458.0860914882</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10289,7 +9051,7 @@
         <v>256309.0386914882</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10322,7 +9084,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10355,7 +9117,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10388,7 +9150,7 @@
         <v>257223.3169914882</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10421,7 +9183,7 @@
         <v>257782.2078914882</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10454,7 +9216,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10487,7 +9249,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10520,7 +9282,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10553,7 +9315,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10586,7 +9348,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10619,7 +9381,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10652,7 +9414,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10685,7 +9447,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10718,7 +9480,7 @@
         <v>252813.5206914882</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10751,7 +9513,7 @@
         <v>251234.6028914882</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10784,7 +9546,7 @@
         <v>251310.2651914882</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10817,7 +9579,7 @@
         <v>249303.9199914882</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
